--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema3g</t>
   </si>
   <si>
     <t>Nrp2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.549156999999999</v>
+        <v>9.100409333333333</v>
       </c>
       <c r="H2">
-        <v>25.647471</v>
+        <v>27.301228</v>
       </c>
       <c r="I2">
-        <v>0.8412959597082825</v>
+        <v>0.9555892209624023</v>
       </c>
       <c r="J2">
-        <v>0.8412959597082826</v>
+        <v>0.9555892209624024</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N2">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O2">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P2">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q2">
-        <v>292.541577232791</v>
+        <v>322.3939070022111</v>
       </c>
       <c r="R2">
-        <v>2632.874195095118</v>
+        <v>2901.5451630199</v>
       </c>
       <c r="S2">
-        <v>0.3404658644634648</v>
+        <v>0.2877326678725349</v>
       </c>
       <c r="T2">
-        <v>0.3404658644634648</v>
+        <v>0.2877326678725349</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.549156999999999</v>
+        <v>9.100409333333333</v>
       </c>
       <c r="H3">
-        <v>25.647471</v>
+        <v>27.301228</v>
       </c>
       <c r="I3">
-        <v>0.8412959597082825</v>
+        <v>0.9555892209624023</v>
       </c>
       <c r="J3">
-        <v>0.8412959597082826</v>
+        <v>0.9555892209624024</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>41.870491</v>
       </c>
       <c r="O3">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P3">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q3">
-        <v>119.319133742029</v>
+        <v>127.0128690292165</v>
       </c>
       <c r="R3">
-        <v>1073.872203678261</v>
+        <v>1143.115821262948</v>
       </c>
       <c r="S3">
-        <v>0.1388660456430947</v>
+        <v>0.1133574514473397</v>
       </c>
       <c r="T3">
-        <v>0.1388660456430947</v>
+        <v>0.1133574514473398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.549156999999999</v>
+        <v>9.100409333333333</v>
       </c>
       <c r="H4">
-        <v>25.647471</v>
+        <v>27.301228</v>
       </c>
       <c r="I4">
-        <v>0.8412959597082825</v>
+        <v>0.9555892209624023</v>
       </c>
       <c r="J4">
-        <v>0.8412959597082826</v>
+        <v>0.9555892209624024</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N4">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O4">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P4">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q4">
-        <v>123.609146320133</v>
+        <v>147.6649193514538</v>
       </c>
       <c r="R4">
-        <v>1112.482316881197</v>
+        <v>1328.984274163084</v>
       </c>
       <c r="S4">
-        <v>0.1438588499301962</v>
+        <v>0.1317891569082448</v>
       </c>
       <c r="T4">
-        <v>0.1438588499301962</v>
+        <v>0.1317891569082449</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.549156999999999</v>
+        <v>9.100409333333333</v>
       </c>
       <c r="H5">
-        <v>25.647471</v>
+        <v>27.301228</v>
       </c>
       <c r="I5">
-        <v>0.8412959597082825</v>
+        <v>0.9555892209624023</v>
       </c>
       <c r="J5">
-        <v>0.8412959597082826</v>
+        <v>0.9555892209624024</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N5">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O5">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P5">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q5">
-        <v>26.463485185931</v>
+        <v>38.86527891376489</v>
       </c>
       <c r="R5">
-        <v>238.1713666733789</v>
+        <v>349.787510223884</v>
       </c>
       <c r="S5">
-        <v>0.03079874473150331</v>
+        <v>0.03468679198515701</v>
       </c>
       <c r="T5">
-        <v>0.03079874473150332</v>
+        <v>0.03468679198515701</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.549156999999999</v>
+        <v>9.100409333333333</v>
       </c>
       <c r="H6">
-        <v>25.647471</v>
+        <v>27.301228</v>
       </c>
       <c r="I6">
-        <v>0.8412959597082825</v>
+        <v>0.9555892209624023</v>
       </c>
       <c r="J6">
-        <v>0.8412959597082826</v>
+        <v>0.9555892209624024</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N6">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O6">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P6">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q6">
-        <v>69.977944839834</v>
+        <v>70.36699195016088</v>
       </c>
       <c r="R6">
-        <v>629.8015035585059</v>
+        <v>633.302927551448</v>
       </c>
       <c r="S6">
-        <v>0.08144176191513394</v>
+        <v>0.06280169036769705</v>
       </c>
       <c r="T6">
-        <v>0.08144176191513396</v>
+        <v>0.06280169036769706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.549156999999999</v>
+        <v>9.100409333333333</v>
       </c>
       <c r="H7">
-        <v>25.647471</v>
+        <v>27.301228</v>
       </c>
       <c r="I7">
-        <v>0.8412959597082825</v>
+        <v>0.9555892209624023</v>
       </c>
       <c r="J7">
-        <v>0.8412959597082826</v>
+        <v>0.9555892209624024</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N7">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O7">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P7">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q7">
-        <v>90.96308177494198</v>
+        <v>364.3987270314733</v>
       </c>
       <c r="R7">
-        <v>818.6677359744779</v>
+        <v>3279.58854328326</v>
       </c>
       <c r="S7">
-        <v>0.1058646930248896</v>
+        <v>0.3252214623814287</v>
       </c>
       <c r="T7">
-        <v>0.1058646930248896</v>
+        <v>0.3252214623814287</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.328377</v>
       </c>
       <c r="I8">
-        <v>0.01077151986490702</v>
+        <v>0.01149375118261973</v>
       </c>
       <c r="J8">
-        <v>0.01077151986490702</v>
+        <v>0.01149375118261973</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N8">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O8">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P8">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q8">
-        <v>3.745551579217001</v>
+        <v>3.877728283858334</v>
       </c>
       <c r="R8">
-        <v>33.709964212953</v>
+        <v>34.899554554725</v>
       </c>
       <c r="S8">
-        <v>0.004359149452783052</v>
+        <v>0.003460825655094321</v>
       </c>
       <c r="T8">
-        <v>0.004359149452783052</v>
+        <v>0.003460825655094321</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.328377</v>
       </c>
       <c r="I9">
-        <v>0.01077151986490702</v>
+        <v>0.01149375118261973</v>
       </c>
       <c r="J9">
-        <v>0.01077151986490702</v>
+        <v>0.01149375118261973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>41.870491</v>
       </c>
       <c r="O9">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P9">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q9">
         <v>1.527700691456334</v>
@@ -1013,10 +1013,10 @@
         <v>13.749306223107</v>
       </c>
       <c r="S9">
-        <v>0.001777969276976374</v>
+        <v>0.001363454414355394</v>
       </c>
       <c r="T9">
-        <v>0.001777969276976374</v>
+        <v>0.001363454414355394</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.328377</v>
       </c>
       <c r="I10">
-        <v>0.01077151986490702</v>
+        <v>0.01149375118261973</v>
       </c>
       <c r="J10">
-        <v>0.01077151986490702</v>
+        <v>0.01149375118261973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N10">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O10">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P10">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q10">
-        <v>1.582627801437667</v>
+        <v>1.776101910942333</v>
       </c>
       <c r="R10">
-        <v>14.243650212939</v>
+        <v>15.984917198481</v>
       </c>
       <c r="S10">
-        <v>0.001841894569781482</v>
+        <v>0.001585149502361532</v>
       </c>
       <c r="T10">
-        <v>0.001841894569781483</v>
+        <v>0.001585149502361532</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>0.328377</v>
       </c>
       <c r="I11">
-        <v>0.01077151986490702</v>
+        <v>0.01149375118261973</v>
       </c>
       <c r="J11">
-        <v>0.01077151986490702</v>
+        <v>0.01149375118261973</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N11">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O11">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P11">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q11">
-        <v>0.3388248250636667</v>
+        <v>0.4674684850756668</v>
       </c>
       <c r="R11">
-        <v>3.049423425573</v>
+        <v>4.207216365681001</v>
       </c>
       <c r="S11">
-        <v>0.0003943312538962171</v>
+        <v>0.0004172099764783439</v>
       </c>
       <c r="T11">
-        <v>0.0003943312538962171</v>
+        <v>0.0004172099764783439</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>0.328377</v>
       </c>
       <c r="I12">
-        <v>0.01077151986490702</v>
+        <v>0.01149375118261973</v>
       </c>
       <c r="J12">
-        <v>0.01077151986490702</v>
+        <v>0.01149375118261973</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N12">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O12">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P12">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q12">
-        <v>0.895961539158</v>
+        <v>0.8463685851646667</v>
       </c>
       <c r="R12">
-        <v>8.063653852422</v>
+        <v>7.617317266482001</v>
       </c>
       <c r="S12">
-        <v>0.001042738344548901</v>
+        <v>0.0007553737391546364</v>
       </c>
       <c r="T12">
-        <v>0.001042738344548901</v>
+        <v>0.0007553737391546365</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>0.328377</v>
       </c>
       <c r="I13">
-        <v>0.01077151986490702</v>
+        <v>0.01149375118261973</v>
       </c>
       <c r="J13">
-        <v>0.01077151986490702</v>
+        <v>0.01149375118261973</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N13">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O13">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P13">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q13">
-        <v>1.164644416754</v>
+        <v>4.382958919885001</v>
       </c>
       <c r="R13">
-        <v>10.481799750786</v>
+        <v>39.446630278965</v>
       </c>
       <c r="S13">
-        <v>0.001355436966920995</v>
+        <v>0.003911737895175501</v>
       </c>
       <c r="T13">
-        <v>0.001355436966920996</v>
+        <v>0.003911737895175501</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1293,10 +1293,10 @@
         <v>0.049658</v>
       </c>
       <c r="I14">
-        <v>0.001628896461845844</v>
+        <v>0.001738114107341654</v>
       </c>
       <c r="J14">
-        <v>0.001628896461845844</v>
+        <v>0.001738114107341654</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N14">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O14">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P14">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q14">
-        <v>0.5664117776846668</v>
+        <v>0.5863998730722222</v>
       </c>
       <c r="R14">
-        <v>5.097705999162</v>
+        <v>5.27759885765</v>
       </c>
       <c r="S14">
-        <v>0.0006592015991567643</v>
+        <v>0.0005233548037185118</v>
       </c>
       <c r="T14">
-        <v>0.0006592015991567642</v>
+        <v>0.0005233548037185118</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1355,10 +1355,10 @@
         <v>0.049658</v>
       </c>
       <c r="I15">
-        <v>0.001628896461845844</v>
+        <v>0.001738114107341654</v>
       </c>
       <c r="J15">
-        <v>0.001628896461845844</v>
+        <v>0.001738114107341654</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,10 +1373,10 @@
         <v>41.870491</v>
       </c>
       <c r="O15">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P15">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q15">
         <v>0.2310227602308889</v>
@@ -1385,10 +1385,10 @@
         <v>2.079204842078</v>
       </c>
       <c r="S15">
-        <v>0.0002688690083534863</v>
+        <v>0.0002061850230316379</v>
       </c>
       <c r="T15">
-        <v>0.0002688690083534863</v>
+        <v>0.0002061850230316379</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1417,10 +1417,10 @@
         <v>0.049658</v>
       </c>
       <c r="I16">
-        <v>0.001628896461845844</v>
+        <v>0.001738114107341654</v>
       </c>
       <c r="J16">
-        <v>0.001628896461845844</v>
+        <v>0.001738114107341654</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N16">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O16">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P16">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q16">
-        <v>0.2393289766451111</v>
+        <v>0.2685866205415555</v>
       </c>
       <c r="R16">
-        <v>2.153960789806</v>
+        <v>2.417279584874</v>
       </c>
       <c r="S16">
-        <v>0.0002785359527196145</v>
+        <v>0.0002397103146330862</v>
       </c>
       <c r="T16">
-        <v>0.0002785359527196145</v>
+        <v>0.0002397103146330863</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1479,10 +1479,10 @@
         <v>0.049658</v>
       </c>
       <c r="I17">
-        <v>0.001628896461845844</v>
+        <v>0.001738114107341654</v>
       </c>
       <c r="J17">
-        <v>0.001628896461845844</v>
+        <v>0.001738114107341654</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N17">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O17">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P17">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q17">
-        <v>0.05123794651577778</v>
+        <v>0.07069176596377778</v>
       </c>
       <c r="R17">
-        <v>0.461141518642</v>
+        <v>0.6362258936740001</v>
       </c>
       <c r="S17">
-        <v>5.963176899106316E-05</v>
+        <v>6.30915472519744E-05</v>
       </c>
       <c r="T17">
-        <v>5.963176899106316E-05</v>
+        <v>6.30915472519744E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1541,10 +1541,10 @@
         <v>0.049658</v>
       </c>
       <c r="I18">
-        <v>0.001628896461845844</v>
+        <v>0.001738114107341654</v>
       </c>
       <c r="J18">
-        <v>0.001628896461845844</v>
+        <v>0.001738114107341654</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N18">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O18">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P18">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q18">
-        <v>0.135489568732</v>
+        <v>0.1279899968697778</v>
       </c>
       <c r="R18">
-        <v>1.219406118588</v>
+        <v>1.151909971828</v>
       </c>
       <c r="S18">
-        <v>0.0001576855282605338</v>
+        <v>0.0001142295262425229</v>
       </c>
       <c r="T18">
-        <v>0.0001576855282605338</v>
+        <v>0.0001142295262425229</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1603,10 +1603,10 @@
         <v>0.049658</v>
       </c>
       <c r="I19">
-        <v>0.001628896461845844</v>
+        <v>0.001738114107341654</v>
       </c>
       <c r="J19">
-        <v>0.001628896461845844</v>
+        <v>0.001738114107341654</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N19">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O19">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P19">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q19">
-        <v>0.1761204726493333</v>
+        <v>0.6628021269566666</v>
       </c>
       <c r="R19">
-        <v>1.585084253844</v>
+        <v>5.965219142610001</v>
       </c>
       <c r="S19">
-        <v>0.0002049726043643823</v>
+        <v>0.0005915428924639209</v>
       </c>
       <c r="T19">
-        <v>0.0002049726043643823</v>
+        <v>0.000591542892463921</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.415608333333333</v>
+        <v>0.213547</v>
       </c>
       <c r="H20">
-        <v>4.246824999999999</v>
+        <v>0.640641</v>
       </c>
       <c r="I20">
-        <v>0.1393056147363663</v>
+        <v>0.02242352007413639</v>
       </c>
       <c r="J20">
-        <v>0.1393056147363663</v>
+        <v>0.02242352007413639</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N20">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O20">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P20">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q20">
-        <v>48.44036605915833</v>
+        <v>7.565181865658333</v>
       </c>
       <c r="R20">
-        <v>435.9632945324249</v>
+        <v>68.086636790925</v>
       </c>
       <c r="S20">
-        <v>0.05637588769863718</v>
+        <v>0.006751833436888943</v>
       </c>
       <c r="T20">
-        <v>0.05637588769863718</v>
+        <v>0.006751833436888944</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>1.415608333333333</v>
+        <v>0.213547</v>
       </c>
       <c r="H21">
-        <v>4.246824999999999</v>
+        <v>0.640641</v>
       </c>
       <c r="I21">
-        <v>0.1393056147363663</v>
+        <v>0.02242352007413639</v>
       </c>
       <c r="J21">
-        <v>0.1393056147363663</v>
+        <v>0.02242352007413639</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>41.870491</v>
       </c>
       <c r="O21">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P21">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q21">
-        <v>19.75740532678611</v>
+        <v>2.980439247192334</v>
       </c>
       <c r="R21">
-        <v>177.816647941075</v>
+        <v>26.823953224731</v>
       </c>
       <c r="S21">
-        <v>0.02299407198036156</v>
+        <v>0.002660006028031969</v>
       </c>
       <c r="T21">
-        <v>0.02299407198036156</v>
+        <v>0.00266000602803197</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>1.415608333333333</v>
+        <v>0.213547</v>
       </c>
       <c r="H22">
-        <v>4.246824999999999</v>
+        <v>0.640641</v>
       </c>
       <c r="I22">
-        <v>0.1393056147363663</v>
+        <v>0.02242352007413639</v>
       </c>
       <c r="J22">
-        <v>0.1393056147363663</v>
+        <v>0.02242352007413639</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N22">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O22">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P22">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q22">
-        <v>20.46776513836388</v>
+        <v>3.465052985830333</v>
       </c>
       <c r="R22">
-        <v>184.209886245275</v>
+        <v>31.185476872473</v>
       </c>
       <c r="S22">
-        <v>0.02382080324234719</v>
+        <v>0.00309251793622085</v>
       </c>
       <c r="T22">
-        <v>0.02382080324234719</v>
+        <v>0.003092517936220851</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>1.415608333333333</v>
+        <v>0.213547</v>
       </c>
       <c r="H23">
-        <v>4.246824999999999</v>
+        <v>0.640641</v>
       </c>
       <c r="I23">
-        <v>0.1393056147363663</v>
+        <v>0.02242352007413639</v>
       </c>
       <c r="J23">
-        <v>0.1393056147363663</v>
+        <v>0.02242352007413639</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N23">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O23">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P23">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q23">
-        <v>4.381944343547222</v>
+        <v>0.9119989455636668</v>
       </c>
       <c r="R23">
-        <v>39.43749909192499</v>
+        <v>8.207990510073001</v>
       </c>
       <c r="S23">
-        <v>0.005099796353970594</v>
+        <v>0.0008139480430756803</v>
       </c>
       <c r="T23">
-        <v>0.005099796353970594</v>
+        <v>0.0008139480430756804</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>1.415608333333333</v>
+        <v>0.213547</v>
       </c>
       <c r="H24">
-        <v>4.246824999999999</v>
+        <v>0.640641</v>
       </c>
       <c r="I24">
-        <v>0.1393056147363663</v>
+        <v>0.02242352007413639</v>
       </c>
       <c r="J24">
-        <v>0.1393056147363663</v>
+        <v>0.02242352007413639</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N24">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O24">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P24">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q24">
-        <v>11.58726665855</v>
+        <v>1.651207047900667</v>
       </c>
       <c r="R24">
-        <v>104.28539992695</v>
+        <v>14.860863431106</v>
       </c>
       <c r="S24">
-        <v>0.01348549767519919</v>
+        <v>0.00147368234567514</v>
       </c>
       <c r="T24">
-        <v>0.01348549767519919</v>
+        <v>0.00147368234567514</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>1.415608333333333</v>
+        <v>0.213547</v>
       </c>
       <c r="H25">
-        <v>4.246824999999999</v>
+        <v>0.640641</v>
       </c>
       <c r="I25">
-        <v>0.1393056147363663</v>
+        <v>0.02242352007413639</v>
       </c>
       <c r="J25">
-        <v>0.1393056147363663</v>
+        <v>0.02242352007413639</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N25">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O25">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P25">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q25">
-        <v>15.06208116031666</v>
+        <v>8.550852177205</v>
       </c>
       <c r="R25">
-        <v>135.55873044285</v>
+        <v>76.957669594845</v>
       </c>
       <c r="S25">
-        <v>0.01752955778585058</v>
+        <v>0.007631532284243803</v>
       </c>
       <c r="T25">
-        <v>0.01752955778585058</v>
+        <v>0.007631532284243805</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2037,10 +2037,10 @@
         <v>0.213339</v>
       </c>
       <c r="I26">
-        <v>0.006998009228598223</v>
+        <v>0.007467226339082547</v>
       </c>
       <c r="J26">
-        <v>0.006998009228598224</v>
+        <v>0.007467226339082549</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N26">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O26">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P26">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q26">
-        <v>2.433398893219</v>
+        <v>2.519271064508333</v>
       </c>
       <c r="R26">
-        <v>21.900590038971</v>
+        <v>22.673439580575</v>
       </c>
       <c r="S26">
-        <v>0.002832039348393107</v>
+        <v>0.002248418995338185</v>
       </c>
       <c r="T26">
-        <v>0.002832039348393107</v>
+        <v>0.002248418995338185</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2099,10 +2099,10 @@
         <v>0.213339</v>
       </c>
       <c r="I27">
-        <v>0.006998009228598223</v>
+        <v>0.007467226339082547</v>
       </c>
       <c r="J27">
-        <v>0.006998009228598224</v>
+        <v>0.007467226339082549</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,10 +2117,10 @@
         <v>41.870491</v>
       </c>
       <c r="O27">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P27">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q27">
         <v>0.9925120754943333</v>
@@ -2129,10 +2129,10 @@
         <v>8.932608679449</v>
       </c>
       <c r="S27">
-        <v>0.001155105831348915</v>
+        <v>0.0008858050390379514</v>
       </c>
       <c r="T27">
-        <v>0.001155105831348915</v>
+        <v>0.0008858050390379516</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2161,10 +2161,10 @@
         <v>0.213339</v>
       </c>
       <c r="I28">
-        <v>0.006998009228598223</v>
+        <v>0.007467226339082547</v>
       </c>
       <c r="J28">
-        <v>0.006998009228598224</v>
+        <v>0.007467226339082549</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N28">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O28">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P28">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q28">
-        <v>1.028196958163667</v>
+        <v>1.153892646496333</v>
       </c>
       <c r="R28">
-        <v>9.253772623472999</v>
+        <v>10.385033818467</v>
       </c>
       <c r="S28">
-        <v>0.001196636626872807</v>
+        <v>0.001029835249375891</v>
       </c>
       <c r="T28">
-        <v>0.001196636626872807</v>
+        <v>0.001029835249375891</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2223,10 +2223,10 @@
         <v>0.213339</v>
       </c>
       <c r="I29">
-        <v>0.006998009228598223</v>
+        <v>0.007467226339082547</v>
       </c>
       <c r="J29">
-        <v>0.006998009228598224</v>
+        <v>0.007467226339082549</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N29">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O29">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P29">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q29">
-        <v>0.2201267121456666</v>
+        <v>0.3037035454296667</v>
       </c>
       <c r="R29">
-        <v>1.981140409311</v>
+        <v>2.733331908867</v>
       </c>
       <c r="S29">
-        <v>0.0002561879649761252</v>
+        <v>0.0002710517459259125</v>
       </c>
       <c r="T29">
-        <v>0.0002561879649761252</v>
+        <v>0.0002710517459259126</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,10 +2264,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -2285,10 +2285,10 @@
         <v>0.213339</v>
       </c>
       <c r="I30">
-        <v>0.006998009228598223</v>
+        <v>0.007467226339082547</v>
       </c>
       <c r="J30">
-        <v>0.006998009228598224</v>
+        <v>0.007467226339082549</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N30">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O30">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P30">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q30">
-        <v>0.5820856479059999</v>
+        <v>0.5498662439526666</v>
       </c>
       <c r="R30">
-        <v>5.238770831154</v>
+        <v>4.948796195574</v>
       </c>
       <c r="S30">
-        <v>0.0006774431695512108</v>
+        <v>0.0004907489810111881</v>
       </c>
       <c r="T30">
-        <v>0.0006774431695512109</v>
+        <v>0.0004907489810111884</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2347,10 +2347,10 @@
         <v>0.213339</v>
       </c>
       <c r="I31">
-        <v>0.006998009228598223</v>
+        <v>0.007467226339082547</v>
       </c>
       <c r="J31">
-        <v>0.006998009228598224</v>
+        <v>0.007467226339082549</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N31">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O31">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P31">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q31">
-        <v>0.7566427466779999</v>
+        <v>2.847507812695</v>
       </c>
       <c r="R31">
-        <v>6.809784720102</v>
+        <v>25.627570314255</v>
       </c>
       <c r="S31">
-        <v>0.0008805962874560586</v>
+        <v>0.002541366328393419</v>
       </c>
       <c r="T31">
-        <v>0.0008805962874560587</v>
+        <v>0.00254136632839342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.01226766666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.036803</v>
+      </c>
+      <c r="I32">
+        <v>0.001288167334417313</v>
+      </c>
+      <c r="J32">
+        <v>0.001288167334417313</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>35.42630833333333</v>
+      </c>
+      <c r="N32">
+        <v>106.278925</v>
+      </c>
+      <c r="O32">
+        <v>0.3011049743557705</v>
+      </c>
+      <c r="P32">
+        <v>0.3011049743557705</v>
+      </c>
+      <c r="Q32">
+        <v>0.4345981418638889</v>
+      </c>
+      <c r="R32">
+        <v>3.911383276775</v>
+      </c>
+      <c r="S32">
+        <v>0.0003878735921956662</v>
+      </c>
+      <c r="T32">
+        <v>0.0003878735921956662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.01226766666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.036803</v>
+      </c>
+      <c r="I33">
+        <v>0.001288167334417313</v>
+      </c>
+      <c r="J33">
+        <v>0.001288167334417313</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>13.95683033333333</v>
+      </c>
+      <c r="N33">
+        <v>41.870491</v>
+      </c>
+      <c r="O33">
+        <v>0.1186257117186547</v>
+      </c>
+      <c r="P33">
+        <v>0.1186257117186547</v>
+      </c>
+      <c r="Q33">
+        <v>0.1712177422525556</v>
+      </c>
+      <c r="R33">
+        <v>1.540959680273</v>
+      </c>
+      <c r="S33">
+        <v>0.000152809766857976</v>
+      </c>
+      <c r="T33">
+        <v>0.000152809766857976</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.01226766666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.036803</v>
+      </c>
+      <c r="I34">
+        <v>0.001288167334417313</v>
+      </c>
+      <c r="J34">
+        <v>0.001288167334417313</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>16.22618433333333</v>
+      </c>
+      <c r="N34">
+        <v>48.678553</v>
+      </c>
+      <c r="O34">
+        <v>0.1379140262544151</v>
+      </c>
+      <c r="P34">
+        <v>0.1379140262544152</v>
+      </c>
+      <c r="Q34">
+        <v>0.1990574206732222</v>
+      </c>
+      <c r="R34">
+        <v>1.791516786059</v>
+      </c>
+      <c r="S34">
+        <v>0.0001776563435789092</v>
+      </c>
+      <c r="T34">
+        <v>0.0001776563435789092</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.01226766666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.036803</v>
+      </c>
+      <c r="I35">
+        <v>0.001288167334417313</v>
+      </c>
+      <c r="J35">
+        <v>0.001288167334417313</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>4.270717666666667</v>
+      </c>
+      <c r="N35">
+        <v>12.812153</v>
+      </c>
+      <c r="O35">
+        <v>0.03629885229369049</v>
+      </c>
+      <c r="P35">
+        <v>0.03629885229369049</v>
+      </c>
+      <c r="Q35">
+        <v>0.05239174076211112</v>
+      </c>
+      <c r="R35">
+        <v>0.471525666859</v>
+      </c>
+      <c r="S35">
+        <v>4.675899580157103E-05</v>
+      </c>
+      <c r="T35">
+        <v>4.675899580157103E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.01226766666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.036803</v>
+      </c>
+      <c r="I36">
+        <v>0.001288167334417313</v>
+      </c>
+      <c r="J36">
+        <v>0.001288167334417313</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>7.732288666666666</v>
+      </c>
+      <c r="N36">
+        <v>23.196866</v>
+      </c>
+      <c r="O36">
+        <v>0.06572038381141176</v>
+      </c>
+      <c r="P36">
+        <v>0.06572038381141178</v>
+      </c>
+      <c r="Q36">
+        <v>0.09485713993311112</v>
+      </c>
+      <c r="R36">
+        <v>0.8537142593980001</v>
+      </c>
+      <c r="S36">
+        <v>8.4658851631229E-05</v>
+      </c>
+      <c r="T36">
+        <v>8.465885163122901E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.01226766666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.036803</v>
+      </c>
+      <c r="I37">
+        <v>0.001288167334417313</v>
+      </c>
+      <c r="J37">
+        <v>0.001288167334417313</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>40.042015</v>
+      </c>
+      <c r="N37">
+        <v>120.126045</v>
+      </c>
+      <c r="O37">
+        <v>0.3403360515660573</v>
+      </c>
+      <c r="P37">
+        <v>0.3403360515660573</v>
+      </c>
+      <c r="Q37">
+        <v>0.4912220926816667</v>
+      </c>
+      <c r="R37">
+        <v>4.420998834135</v>
+      </c>
+      <c r="S37">
+        <v>0.0004384097843519612</v>
+      </c>
+      <c r="T37">
+        <v>0.0004384097843519612</v>
       </c>
     </row>
   </sheetData>
